--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="239">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T00:00:00+02:00</t>
+    <t>2025-03-04T00:00:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>65</t>
+    <t>66</t>
   </si>
   <si>
     <t>Level</t>
@@ -685,6 +685,15 @@
   </si>
   <si>
     <t>Stryker PLLA skrue [Femur + Tibia]</t>
+  </si>
+  <si>
+    <t>stryker_procinch</t>
+  </si>
+  <si>
+    <t>Stryker ProCinch</t>
+  </si>
+  <si>
+    <t>Stryker ProCinch [Femur]</t>
   </si>
   <si>
     <t>stryker_titanium</t>
@@ -1031,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1961,6 +1970,20 @@
         <v>235</v>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,13 +63,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="254">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -196,45 +196,42 @@
     <t>arthrek_biotenodesis_plla</t>
   </si>
   <si>
-    <t>Arthrek Biotenodesis PLLA skrue</t>
-  </si>
-  <si>
-    <t>Arthrek Biotenodesis PLLA skrue [Tibia]</t>
+    <t>Arthrex Biotenodesis PLLA skrue</t>
+  </si>
+  <si>
+    <t>Arthrex Biotenodesis PLLA skrue [Tibia]</t>
   </si>
   <si>
     <t>arthrek_plla_retro</t>
   </si>
   <si>
-    <t>Arthrek PLLA retro-skrue</t>
-  </si>
-  <si>
-    <t>Arthrek PLLA retro-skrue [Tibia]</t>
+    <t>Arthrex PLLA retro-skrue</t>
+  </si>
+  <si>
+    <t>Arthrex PLLA retro-skrue [Tibia]</t>
   </si>
   <si>
     <t>arthrek_plla</t>
   </si>
   <si>
-    <t>Arthrek PLLA skrue</t>
-  </si>
-  <si>
-    <t>Arthrek PLLA skrue [Tibia]</t>
+    <t>Arthrex PLLA skrue</t>
+  </si>
+  <si>
+    <t>Arthrex PLLA skrue [Tibia]</t>
   </si>
   <si>
     <t>arthrek_titanium</t>
   </si>
   <si>
-    <t>Arthrek Titanium skrue</t>
-  </si>
-  <si>
-    <t>Arthrek Titanium skrue [Tibia]</t>
+    <t>Arthrex Titanium skrue</t>
+  </si>
+  <si>
+    <t>Arthrex Titanium skrue [Tibia]</t>
   </si>
   <si>
     <t>arthrex_biotenodesis_plla</t>
   </si>
   <si>
-    <t>Arthrex Biotenodesis PLLA skrue</t>
-  </si>
-  <si>
     <t>Arthrex Biotenodesis PLLA skrue [Femur]</t>
   </si>
   <si>
@@ -268,9 +265,6 @@
     <t>arthrex_plla</t>
   </si>
   <si>
-    <t>Arthrex PLLA skrue</t>
-  </si>
-  <si>
     <t>Arthrex PLLA skrue [Femur]</t>
   </si>
   <si>
@@ -295,9 +289,6 @@
     <t>arthrex_titanium</t>
   </si>
   <si>
-    <t>Arthrex Titanium skrue</t>
-  </si>
-  <si>
     <t>Arthrex Titanium skrue [Femur]</t>
   </si>
   <si>
@@ -421,10 +412,10 @@
     <t>conmed_guardsman</t>
   </si>
   <si>
-    <t>Conmed Guardsman metal</t>
-  </si>
-  <si>
-    <t>Conmed Guardsman metal [Femur]</t>
+    <t>ConMed Guardsman metal</t>
+  </si>
+  <si>
+    <t>ConMed Guardsman metal [Femur]</t>
   </si>
   <si>
     <t>conmed_martryx</t>
@@ -748,7 +739,7 @@
     <t>Stryker ProCinch</t>
   </si>
   <si>
-    <t>Stryker ProCinch [Femur]</t>
+    <t>Stryker ProCinch [Femur + Tibia]</t>
   </si>
   <si>
     <t>stryker_titanium</t>
@@ -1262,10 +1253,10 @@
         <v>71</v>
       </c>
       <c r="C6" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -1273,13 +1264,13 @@
         <v>58</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="D7" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="8">
@@ -1287,13 +1278,13 @@
         <v>58</v>
       </c>
       <c r="B8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="D8" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -1301,13 +1292,13 @@
         <v>58</v>
       </c>
       <c r="B9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="C9" t="s" s="2">
+      <c r="D9" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -1315,13 +1306,13 @@
         <v>58</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="D10" t="s" s="2">
-        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1329,13 +1320,13 @@
         <v>58</v>
       </c>
       <c r="B11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>88</v>
       </c>
     </row>
     <row r="12">
@@ -1343,13 +1334,13 @@
         <v>58</v>
       </c>
       <c r="B12" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>91</v>
       </c>
     </row>
     <row r="13">
@@ -1357,13 +1348,13 @@
         <v>58</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
@@ -1371,13 +1362,13 @@
         <v>58</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15">
@@ -1385,13 +1376,13 @@
         <v>58</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16">
@@ -1399,13 +1390,13 @@
         <v>58</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -1413,13 +1404,13 @@
         <v>58</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -1427,13 +1418,13 @@
         <v>58</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
@@ -1441,13 +1432,13 @@
         <v>58</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20">
@@ -1455,13 +1446,13 @@
         <v>58</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
@@ -1469,13 +1460,13 @@
         <v>58</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
@@ -1483,13 +1474,13 @@
         <v>58</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23">
@@ -1497,13 +1488,13 @@
         <v>58</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
@@ -1511,13 +1502,13 @@
         <v>58</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25">
@@ -1525,13 +1516,13 @@
         <v>58</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
@@ -1539,13 +1530,13 @@
         <v>58</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27">
@@ -1553,13 +1544,13 @@
         <v>58</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28">
@@ -1567,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29">
@@ -1581,13 +1572,13 @@
         <v>58</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30">
@@ -1595,13 +1586,13 @@
         <v>58</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31">
@@ -1609,13 +1600,13 @@
         <v>58</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32">
@@ -1623,13 +1614,13 @@
         <v>58</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33">
@@ -1637,13 +1628,13 @@
         <v>58</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34">
@@ -1651,13 +1642,13 @@
         <v>58</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35">
@@ -1665,13 +1656,13 @@
         <v>58</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36">
@@ -1679,13 +1670,13 @@
         <v>58</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37">
@@ -1693,13 +1684,13 @@
         <v>58</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38">
@@ -1707,13 +1698,13 @@
         <v>58</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39">
@@ -1721,13 +1712,13 @@
         <v>58</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40">
@@ -1735,13 +1726,13 @@
         <v>58</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41">
@@ -1749,13 +1740,13 @@
         <v>58</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42">
@@ -1763,13 +1754,13 @@
         <v>58</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43">
@@ -1777,13 +1768,13 @@
         <v>58</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44">
@@ -1791,13 +1782,13 @@
         <v>58</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45">
@@ -1805,13 +1796,13 @@
         <v>58</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46">
@@ -1819,13 +1810,13 @@
         <v>58</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47">
@@ -1833,13 +1824,13 @@
         <v>58</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48">
@@ -1847,13 +1838,13 @@
         <v>58</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49">
@@ -1861,13 +1852,13 @@
         <v>58</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50">
@@ -1875,13 +1866,13 @@
         <v>58</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51">
@@ -1889,13 +1880,13 @@
         <v>58</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52">
@@ -1903,13 +1894,13 @@
         <v>58</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53">
@@ -1917,13 +1908,13 @@
         <v>58</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54">
@@ -1931,13 +1922,13 @@
         <v>58</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55">
@@ -1945,13 +1936,13 @@
         <v>58</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56">
@@ -1959,13 +1950,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57">
@@ -1973,13 +1964,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="58">
@@ -1987,13 +1978,13 @@
         <v>58</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59">
@@ -2001,13 +1992,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60">
@@ -2015,13 +2006,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61">
@@ -2029,13 +2020,13 @@
         <v>58</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62">
@@ -2043,13 +2034,13 @@
         <v>58</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63">
@@ -2057,13 +2048,13 @@
         <v>58</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="64">
@@ -2071,13 +2062,13 @@
         <v>58</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65">
@@ -2085,13 +2076,13 @@
         <v>58</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66">
@@ -2099,13 +2090,13 @@
         <v>58</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="67">
@@ -2113,13 +2104,13 @@
         <v>58</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-FixationCruciateLigaments.xlsx
+++ b/fhir/CodeSystem-FixationCruciateLigaments.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
